--- a/GaneshSoley/Supplier_Onboarding/Data/Input/ConfigFramework.xlsx
+++ b/GaneshSoley/Supplier_Onboarding/Data/Input/ConfigFramework.xlsx
@@ -393,9 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -437,6 +439,16 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
